--- a/report-pm.xlsx
+++ b/report-pm.xlsx
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>56776415.29</v>
+        <v>87531075.34999999</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>76783861.97</v>
+        <v>118300827.01</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>16721931.62</v>
+        <v>25457514.66</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>131587.87</v>
+        <v>499023.97</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>53322454.62</v>
+        <v>85096242.98999999</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>78918673.34</v>
+        <v>120486934.98</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>744205.91</v>
+        <v>918364.33</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>17428462.88</v>
+        <v>25286898.69</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -837,7 +837,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>150413796.75</v>
+        <v>231788440.99</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -845,7 +845,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>150413796.75</v>
+        <v>231788440.99</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>109874884.87</v>
+        <v>122499949.2</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>89213878.15000001</v>
+        <v>134927997.2</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>22285549.88</v>
+        <v>26116954.63</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>176803213.14</v>
+        <v>231310991.77</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1022,7 +1022,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>199088763.02</v>
+        <v>257427946.4</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1030,10 +1030,10 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>199088763.02</v>
+        <v>257427946.4</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16">
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>41060467.5</v>
+        <v>52084358.88</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>57109970.95</v>
+        <v>83833364.42</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>13976714.39</v>
+        <v>15214498.52</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>84193724.06</v>
+        <v>120703224.78</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1207,7 +1207,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>98170438.45</v>
+        <v>135917723.3</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1215,7 +1215,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>98170438.45</v>
+        <v>135917723.3</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>16490</v>
+        <v>17490</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>21090</v>
+        <v>22090</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -1470,7 +1470,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>21090</v>
+        <v>22090</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1478,7 +1478,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>21090</v>
+        <v>22090</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>212219.6</v>
+        <v>431716.3</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>212219.6</v>
+        <v>424160.75</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -1733,7 +1733,7 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>212219.6</v>
+        <v>431716.3</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1741,10 +1741,10 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>212219.6</v>
+        <v>424160.75</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>7555.55</v>
       </c>
     </row>
     <row r="35">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>281923.28</v>
+        <v>282619.46</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>281923.28</v>
+        <v>282619.46</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -2142,7 +2142,7 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>281923.28</v>
+        <v>282619.46</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2150,7 +2150,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>281923.28</v>
+        <v>282619.46</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72734.48</v>
+        <v>70301.22</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>288079.41</v>
+        <v>422200.79</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>-221115.17</v>
+        <v>-354734.85</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>25699.5</v>
+        <v>33059.5</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>-19929.26</v>
+        <v>-30224.22</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -2405,7 +2405,7 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>72734.48</v>
+        <v>70301.22</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2413,7 +2413,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>72734.47999999997</v>
+        <v>70301.22</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>5123.77</v>
+        <v>5528.52</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>19558.4</v>
+        <v>30172.72</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>-14434.63</v>
+        <v>-24644.2</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -2590,7 +2590,7 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>5123.77</v>
+        <v>5528.52</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2598,10 +2598,10 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>5123.770000000002</v>
+        <v>5528.52</v>
       </c>
       <c r="O57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>68385.99000000001</v>
+        <v>15415.55</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>18300.99</v>
+        <v>15415.55</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>50085</v>
+        <v>0</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -2767,7 +2767,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>68385.99000000001</v>
+        <v>15415.55</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2775,7 +2775,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>68385.99000000001</v>
+        <v>15415.55</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>18300.99</v>
+        <v>15415.55</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>18300.99</v>
+        <v>15415.55</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -2909,7 +2909,7 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>18300.99</v>
+        <v>15415.55</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2917,7 +2917,7 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>18300.99</v>
+        <v>15415.55</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>26676.02</v>
+        <v>25741.77</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>409940.76</v>
+        <v>487744.1</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>-383264.74</v>
+        <v>-462002.33</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -3094,7 +3094,7 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>26676.02</v>
+        <v>25741.77</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3102,10 +3102,10 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
-        <v>26676.02000000002</v>
+        <v>25741.76999999996</v>
       </c>
       <c r="O71" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>533350.4399999999</v>
+        <v>1451977.44</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>35855950.78</v>
+        <v>36774577.78</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -3863,7 +3863,7 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>533350.4399999999</v>
+        <v>1451977.44</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3871,7 +3871,7 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
-        <v>533350.4399999976</v>
+        <v>1451977.439999998</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>3161807.02</v>
+        <v>5230124.59</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>3161807.02</v>
+        <v>5230124.59</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>3161807.02</v>
+        <v>5230124.59</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4155,7 +4155,7 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>3161807.02</v>
+        <v>5230124.59</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1365955.52</v>
+        <v>1665852.58</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>1365955.52</v>
+        <v>1665852.58</v>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
@@ -4289,7 +4289,7 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>1365955.52</v>
+        <v>1665852.58</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4297,7 +4297,7 @@
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="n">
-        <v>1365955.52</v>
+        <v>1665852.58</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>2799216.06</v>
+        <v>3945633.63</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>2799216.06</v>
+        <v>3945633.63</v>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -4573,7 +4573,7 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>2799216.06</v>
+        <v>3945633.63</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4581,7 +4581,7 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="n">
-        <v>2799216.06</v>
+        <v>3945633.63</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>15696174.26</v>
+        <v>22666182.33</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
@@ -4654,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>-397018.89</v>
+        <v>-713791.4399999999</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>15299155.37</v>
+        <v>21952390.89</v>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -4715,7 +4715,7 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>15299155.37</v>
+        <v>21952390.89</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4723,10 +4723,10 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>15299155.37</v>
+        <v>21952390.89</v>
       </c>
       <c r="O116" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117">
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>22447346.97</v>
+        <v>16064776.4</v>
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="M151" t="n">
-        <v>35855950.78</v>
+        <v>36774577.78</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="M152" t="n">
-        <v>-13408603.81</v>
+        <v>-20709801.38</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -6036,7 +6036,7 @@
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>22447346.97</v>
+        <v>16064776.4</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6044,10 +6044,10 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="n">
-        <v>22447346.97</v>
+        <v>16064776.4</v>
       </c>
       <c r="O153" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154">
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>15315672.28</v>
+        <v>23680055.79</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="M156" t="n">
-        <v>15315672.28</v>
+        <v>23680055.79</v>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
@@ -6182,7 +6182,7 @@
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>15315672.28</v>
+        <v>23680055.79</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6190,7 +6190,7 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="n">
-        <v>15315672.28</v>
+        <v>23680055.79</v>
       </c>
       <c r="O157" t="n">
         <v>0</v>
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>1863153.6</v>
+        <v>2822108.15</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
@@ -6308,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="M160" t="n">
-        <v>1863153.6</v>
+        <v>2822108.15</v>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
@@ -6328,7 +6328,7 @@
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>1863153.6</v>
+        <v>2822108.15</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6336,7 +6336,7 @@
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="n">
-        <v>1863153.6</v>
+        <v>2822108.15</v>
       </c>
       <c r="O161" t="n">
         <v>0</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>42910.15</v>
+        <v>147025.03</v>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
@@ -6493,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="M165" t="n">
-        <v>42871.87</v>
+        <v>146986.75</v>
       </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
@@ -6513,7 +6513,7 @@
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>42910.15</v>
+        <v>147025.03</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6521,7 +6521,7 @@
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="n">
-        <v>42910.15</v>
+        <v>147025.03</v>
       </c>
       <c r="O166" t="n">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>1004.72</v>
+        <v>1121.23</v>
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="M169" t="n">
-        <v>1004.72</v>
+        <v>1121.23</v>
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
@@ -6659,7 +6659,7 @@
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>1004.72</v>
+        <v>1121.23</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6667,7 +6667,7 @@
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="n">
-        <v>1004.72</v>
+        <v>1121.23</v>
       </c>
       <c r="O170" t="n">
         <v>0</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>4944967.18</v>
+        <v>5190899.11</v>
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="M173" t="n">
-        <v>15299155.37</v>
+        <v>21952390.89</v>
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
@@ -6816,7 +6816,7 @@
         <v>1</v>
       </c>
       <c r="M174" t="n">
-        <v>-10354188.19</v>
+        <v>-16761491.78</v>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
@@ -6836,7 +6836,7 @@
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>4944967.18</v>
+        <v>5190899.11</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6844,10 +6844,10 @@
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="n">
-        <v>4944967.18</v>
+        <v>5190899.110000001</v>
       </c>
       <c r="O175" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="176">
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>4944967.18</v>
+        <v>5190899.11</v>
       </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="M178" t="n">
-        <v>15299155.37</v>
+        <v>21952390.89</v>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="M179" t="n">
-        <v>-10354188.19</v>
+        <v>-16761491.78</v>
       </c>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
@@ -7013,7 +7013,7 @@
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>4944967.18</v>
+        <v>5190899.11</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7021,10 +7021,10 @@
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="n">
-        <v>4944967.18</v>
+        <v>5190899.110000001</v>
       </c>
       <c r="O180" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181">
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>689019.73</v>
+        <v>589133</v>
       </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="M183" t="n">
-        <v>10354188.19</v>
+        <v>16761491.78</v>
       </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
@@ -7170,7 +7170,7 @@
         <v>1</v>
       </c>
       <c r="M184" t="n">
-        <v>-9665168.460000001</v>
+        <v>-16172358.78</v>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
@@ -7190,7 +7190,7 @@
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>689019.73</v>
+        <v>589133</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7198,7 +7198,7 @@
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="n">
-        <v>689019.7299999986</v>
+        <v>589133</v>
       </c>
       <c r="O185" t="n">
         <v>0</v>
@@ -7232,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>689019.73</v>
+        <v>589133</v>
       </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="M188" t="n">
-        <v>10354188.19</v>
+        <v>16761491.78</v>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
@@ -7347,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="M189" t="n">
-        <v>-9665168.460000001</v>
+        <v>-16172358.78</v>
       </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
@@ -7367,7 +7367,7 @@
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>689019.73</v>
+        <v>589133</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7375,7 +7375,7 @@
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="n">
-        <v>689019.7299999986</v>
+        <v>589133</v>
       </c>
       <c r="O190" t="n">
         <v>0</v>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>9665168.460000001</v>
+        <v>16172358.78</v>
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="M193" t="n">
-        <v>9665168.460000001</v>
+        <v>16172358.78</v>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
@@ -7509,7 +7509,7 @@
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>9665168.460000001</v>
+        <v>16172358.78</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7517,7 +7517,7 @@
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="n">
-        <v>9665168.460000001</v>
+        <v>16172358.78</v>
       </c>
       <c r="O194" t="n">
         <v>0</v>
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>9665168.460000001</v>
+        <v>16172358.78</v>
       </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="M197" t="n">
-        <v>9665168.460000001</v>
+        <v>16172358.78</v>
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
@@ -7651,7 +7651,7 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>9665168.460000001</v>
+        <v>16172358.78</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7659,7 +7659,7 @@
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="n">
-        <v>9665168.460000001</v>
+        <v>16172358.78</v>
       </c>
       <c r="O198" t="n">
         <v>0</v>
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>2063865.27</v>
+        <v>1074864.98</v>
       </c>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="M201" t="n">
-        <v>2063865.27</v>
+        <v>1074864.98</v>
       </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
@@ -7793,7 +7793,7 @@
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="n">
-        <v>2063865.27</v>
+        <v>1074864.98</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7801,7 +7801,7 @@
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="n">
-        <v>2063865.27</v>
+        <v>1074864.98</v>
       </c>
       <c r="O202" t="n">
         <v>0</v>
@@ -7835,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>50085</v>
+        <v>0</v>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="M205" t="n">
-        <v>50085</v>
+        <v>0</v>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
@@ -7935,7 +7935,7 @@
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="n">
-        <v>50085</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7943,7 +7943,7 @@
       <c r="L206" t="inlineStr"/>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="n">
-        <v>50085</v>
+        <v>0</v>
       </c>
       <c r="O206" t="n">
         <v>0</v>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>1471373.43</v>
+        <v>1989072.1</v>
       </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
@@ -8057,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="M209" t="n">
-        <v>1471373.43</v>
+        <v>1989072.1</v>
       </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
@@ -8077,7 +8077,7 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="n">
-        <v>1471373.43</v>
+        <v>1989072.1</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8085,7 +8085,7 @@
       <c r="L210" t="inlineStr"/>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="n">
-        <v>1471373.43</v>
+        <v>1989072.1</v>
       </c>
       <c r="O210" t="n">
         <v>0</v>
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>175394.11</v>
+        <v>696780.73</v>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -8199,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="M213" t="n">
-        <v>175394.11</v>
+        <v>696780.73</v>
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
@@ -8219,7 +8219,7 @@
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="n">
-        <v>175394.11</v>
+        <v>696780.73</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8227,7 +8227,7 @@
       <c r="L214" t="inlineStr"/>
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="n">
-        <v>175394.11</v>
+        <v>696780.73</v>
       </c>
       <c r="O214" t="n">
         <v>0</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>112986.88</v>
+        <v>115872.32</v>
       </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
@@ -8341,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="M217" t="n">
-        <v>112986.88</v>
+        <v>115872.32</v>
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
@@ -8361,7 +8361,7 @@
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="n">
-        <v>112986.88</v>
+        <v>115872.32</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8369,7 +8369,7 @@
       <c r="L218" t="inlineStr"/>
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="n">
-        <v>112986.88</v>
+        <v>115872.32</v>
       </c>
       <c r="O218" t="n">
         <v>0</v>
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>41321230.78</v>
+        <v>42239857.78</v>
       </c>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
@@ -8999,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="M235" t="n">
-        <v>37763019.25</v>
+        <v>39744832.19</v>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
@@ -9038,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="M236" t="n">
-        <v>-1907068.47</v>
+        <v>-2970254.41</v>
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
@@ -9058,7 +9058,7 @@
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="n">
-        <v>35855950.78</v>
+        <v>36774577.78</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9066,7 +9066,7 @@
       <c r="L237" t="inlineStr"/>
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="n">
-        <v>35855950.78</v>
+        <v>36774577.78</v>
       </c>
       <c r="O237" t="n">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>45526181.42</v>
+        <v>50262610.68</v>
       </c>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
@@ -9139,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="G239" t="n">
-        <v>-7326978.6</v>
+        <v>-10841610.8</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="M240" t="n">
-        <v>38199202.82</v>
+        <v>39420999.88</v>
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr"/>
@@ -9243,7 +9243,7 @@
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="n">
-        <v>38199202.82</v>
+        <v>39420999.88</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9251,10 +9251,10 @@
       <c r="L242" t="inlineStr"/>
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="n">
-        <v>38199202.82</v>
+        <v>39420999.88</v>
       </c>
       <c r="O242" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="243">
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>15696174.26</v>
+        <v>22666182.33</v>
       </c>
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
@@ -9694,7 +9694,7 @@
         <v>1</v>
       </c>
       <c r="G254" t="n">
-        <v>-397018.89</v>
+        <v>-713791.4399999999</v>
       </c>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="M255" t="n">
-        <v>15299155.37</v>
+        <v>21952390.89</v>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
@@ -9798,7 +9798,7 @@
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="n">
-        <v>15299155.37</v>
+        <v>21952390.89</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9806,10 +9806,10 @@
       <c r="L257" t="inlineStr"/>
       <c r="M257" t="inlineStr"/>
       <c r="N257" t="n">
-        <v>15299155.37</v>
+        <v>21952390.89</v>
       </c>
       <c r="O257" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="258">
@@ -14835,7 +14835,7 @@
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr"/>
@@ -14919,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="M395" t="n">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr"/>
@@ -14978,7 +14978,7 @@
       <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr"/>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14986,7 +14986,7 @@
       <c r="L397" t="inlineStr"/>
       <c r="M397" t="inlineStr"/>
       <c r="N397" t="n">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="O397" t="n">
         <v>0</v>
@@ -21680,7 +21680,7 @@
         <v>0</v>
       </c>
       <c r="G578" t="n">
-        <v>898546.62</v>
+        <v>885546.62</v>
       </c>
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr"/>
@@ -21764,7 +21764,7 @@
         <v>0</v>
       </c>
       <c r="M580" t="n">
-        <v>898546.62</v>
+        <v>885546.62</v>
       </c>
       <c r="N580" t="inlineStr"/>
       <c r="O580" t="inlineStr"/>
@@ -21823,7 +21823,7 @@
       <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr"/>
       <c r="H582" t="n">
-        <v>898546.62</v>
+        <v>885546.62</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21831,7 +21831,7 @@
       <c r="L582" t="inlineStr"/>
       <c r="M582" t="inlineStr"/>
       <c r="N582" t="n">
-        <v>898546.62</v>
+        <v>885546.62</v>
       </c>
       <c r="O582" t="n">
         <v>0</v>
@@ -22420,7 +22420,7 @@
         <v>0</v>
       </c>
       <c r="G598" t="n">
-        <v>7900746.92</v>
+        <v>8246559.25</v>
       </c>
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr"/>
@@ -22504,7 +22504,7 @@
         <v>0</v>
       </c>
       <c r="M600" t="n">
-        <v>7900746.92</v>
+        <v>8246559.25</v>
       </c>
       <c r="N600" t="inlineStr"/>
       <c r="O600" t="inlineStr"/>
@@ -22563,7 +22563,7 @@
       <c r="F602" t="inlineStr"/>
       <c r="G602" t="inlineStr"/>
       <c r="H602" t="n">
-        <v>7900746.92</v>
+        <v>8246559.25</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22571,7 +22571,7 @@
       <c r="L602" t="inlineStr"/>
       <c r="M602" t="inlineStr"/>
       <c r="N602" t="n">
-        <v>7900746.92</v>
+        <v>8246559.25</v>
       </c>
       <c r="O602" t="n">
         <v>0</v>
@@ -22790,7 +22790,7 @@
         <v>0</v>
       </c>
       <c r="G608" t="n">
-        <v>2088763.68</v>
+        <v>2868969.56</v>
       </c>
       <c r="H608" t="inlineStr"/>
       <c r="I608" t="inlineStr"/>
@@ -22874,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="M610" t="n">
-        <v>2088763.68</v>
+        <v>2868969.56</v>
       </c>
       <c r="N610" t="inlineStr"/>
       <c r="O610" t="inlineStr"/>
@@ -22933,7 +22933,7 @@
       <c r="F612" t="inlineStr"/>
       <c r="G612" t="inlineStr"/>
       <c r="H612" t="n">
-        <v>2088763.68</v>
+        <v>2868969.56</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22941,7 +22941,7 @@
       <c r="L612" t="inlineStr"/>
       <c r="M612" t="inlineStr"/>
       <c r="N612" t="n">
-        <v>2088763.68</v>
+        <v>2868969.56</v>
       </c>
       <c r="O612" t="n">
         <v>0</v>
@@ -24640,7 +24640,7 @@
         <v>0</v>
       </c>
       <c r="G658" t="n">
-        <v>2508087.92</v>
+        <v>2939004.62</v>
       </c>
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr"/>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="M660" t="n">
-        <v>2508087.92</v>
+        <v>2939004.62</v>
       </c>
       <c r="N660" t="inlineStr"/>
       <c r="O660" t="inlineStr"/>
@@ -24783,7 +24783,7 @@
       <c r="F662" t="inlineStr"/>
       <c r="G662" t="inlineStr"/>
       <c r="H662" t="n">
-        <v>2508087.92</v>
+        <v>2939004.62</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24791,7 +24791,7 @@
       <c r="L662" t="inlineStr"/>
       <c r="M662" t="inlineStr"/>
       <c r="N662" t="n">
-        <v>2508087.92</v>
+        <v>2939004.62</v>
       </c>
       <c r="O662" t="n">
         <v>0</v>
@@ -26490,7 +26490,7 @@
         <v>0</v>
       </c>
       <c r="G708" t="n">
-        <v>21632735.14</v>
+        <v>29640346.42</v>
       </c>
       <c r="H708" t="inlineStr"/>
       <c r="I708" t="inlineStr"/>
@@ -26574,7 +26574,7 @@
         <v>0</v>
       </c>
       <c r="M710" t="n">
-        <v>23081138.33</v>
+        <v>30745353.24</v>
       </c>
       <c r="N710" t="inlineStr"/>
       <c r="O710" t="inlineStr"/>
@@ -26613,7 +26613,7 @@
         <v>1</v>
       </c>
       <c r="M711" t="n">
-        <v>-1448403.19</v>
+        <v>-1105006.82</v>
       </c>
       <c r="N711" t="inlineStr"/>
       <c r="O711" t="inlineStr"/>
@@ -26633,7 +26633,7 @@
       <c r="F712" t="inlineStr"/>
       <c r="G712" t="inlineStr"/>
       <c r="H712" t="n">
-        <v>21632735.14</v>
+        <v>29640346.42</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26641,7 +26641,7 @@
       <c r="L712" t="inlineStr"/>
       <c r="M712" t="inlineStr"/>
       <c r="N712" t="n">
-        <v>21632735.14</v>
+        <v>29640346.42</v>
       </c>
       <c r="O712" t="n">
         <v>0</v>
@@ -29635,7 +29635,7 @@
         <v>0</v>
       </c>
       <c r="G793" t="n">
-        <v>39118.21</v>
+        <v>65150.7</v>
       </c>
       <c r="H793" t="inlineStr"/>
       <c r="I793" t="inlineStr"/>
@@ -29719,7 +29719,7 @@
         <v>0</v>
       </c>
       <c r="M795" t="n">
-        <v>39118.21</v>
+        <v>65150.7</v>
       </c>
       <c r="N795" t="inlineStr"/>
       <c r="O795" t="inlineStr"/>
@@ -29778,7 +29778,7 @@
       <c r="F797" t="inlineStr"/>
       <c r="G797" t="inlineStr"/>
       <c r="H797" t="n">
-        <v>39118.21</v>
+        <v>65150.7</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -29786,7 +29786,7 @@
       <c r="L797" t="inlineStr"/>
       <c r="M797" t="inlineStr"/>
       <c r="N797" t="n">
-        <v>39118.21</v>
+        <v>65150.7</v>
       </c>
       <c r="O797" t="n">
         <v>0</v>
@@ -29820,7 +29820,7 @@
         <v>0</v>
       </c>
       <c r="G798" t="n">
-        <v>45064.83</v>
+        <v>68451.17</v>
       </c>
       <c r="H798" t="inlineStr"/>
       <c r="I798" t="inlineStr"/>
@@ -29904,7 +29904,7 @@
         <v>0</v>
       </c>
       <c r="M800" t="n">
-        <v>45064.83</v>
+        <v>68451.17</v>
       </c>
       <c r="N800" t="inlineStr"/>
       <c r="O800" t="inlineStr"/>
@@ -29963,7 +29963,7 @@
       <c r="F802" t="inlineStr"/>
       <c r="G802" t="inlineStr"/>
       <c r="H802" t="n">
-        <v>45064.83</v>
+        <v>68451.17</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29971,7 +29971,7 @@
       <c r="L802" t="inlineStr"/>
       <c r="M802" t="inlineStr"/>
       <c r="N802" t="n">
-        <v>45064.83</v>
+        <v>68451.17</v>
       </c>
       <c r="O802" t="n">
         <v>0</v>
@@ -33705,7 +33705,7 @@
         <v>0</v>
       </c>
       <c r="G903" t="n">
-        <v>28978.14</v>
+        <v>35048.27</v>
       </c>
       <c r="H903" t="inlineStr"/>
       <c r="I903" t="inlineStr"/>
@@ -33789,7 +33789,7 @@
         <v>0</v>
       </c>
       <c r="M905" t="n">
-        <v>28978.14</v>
+        <v>35048.27</v>
       </c>
       <c r="N905" t="inlineStr"/>
       <c r="O905" t="inlineStr"/>
@@ -33848,7 +33848,7 @@
       <c r="F907" t="inlineStr"/>
       <c r="G907" t="inlineStr"/>
       <c r="H907" t="n">
-        <v>28978.14</v>
+        <v>35048.27</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -33856,7 +33856,7 @@
       <c r="L907" t="inlineStr"/>
       <c r="M907" t="inlineStr"/>
       <c r="N907" t="n">
-        <v>28978.14</v>
+        <v>35048.27</v>
       </c>
       <c r="O907" t="n">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>0</v>
       </c>
       <c r="G943" t="n">
-        <v>13833</v>
+        <v>22705.1</v>
       </c>
       <c r="H943" t="inlineStr"/>
       <c r="I943" t="inlineStr"/>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="M945" t="n">
-        <v>13833</v>
+        <v>22705.1</v>
       </c>
       <c r="N945" t="inlineStr"/>
       <c r="O945" t="inlineStr"/>
@@ -35328,7 +35328,7 @@
       <c r="F947" t="inlineStr"/>
       <c r="G947" t="inlineStr"/>
       <c r="H947" t="n">
-        <v>13833</v>
+        <v>22705.1</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -35336,7 +35336,7 @@
       <c r="L947" t="inlineStr"/>
       <c r="M947" t="inlineStr"/>
       <c r="N947" t="n">
-        <v>13833</v>
+        <v>22705.1</v>
       </c>
       <c r="O947" t="n">
         <v>0</v>
@@ -35555,7 +35555,7 @@
         <v>0</v>
       </c>
       <c r="G953" t="n">
-        <v>1687412.94</v>
+        <v>1838412.94</v>
       </c>
       <c r="H953" t="inlineStr"/>
       <c r="I953" t="inlineStr"/>
@@ -35639,7 +35639,7 @@
         <v>0</v>
       </c>
       <c r="M955" t="n">
-        <v>1687412.94</v>
+        <v>1838412.94</v>
       </c>
       <c r="N955" t="inlineStr"/>
       <c r="O955" t="inlineStr"/>
@@ -35698,7 +35698,7 @@
       <c r="F957" t="inlineStr"/>
       <c r="G957" t="inlineStr"/>
       <c r="H957" t="n">
-        <v>1687412.94</v>
+        <v>1838412.94</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -35706,7 +35706,7 @@
       <c r="L957" t="inlineStr"/>
       <c r="M957" t="inlineStr"/>
       <c r="N957" t="n">
-        <v>1687412.94</v>
+        <v>1838412.94</v>
       </c>
       <c r="O957" t="n">
         <v>0</v>
@@ -36110,7 +36110,7 @@
         <v>0</v>
       </c>
       <c r="G968" t="n">
-        <v>21632735.14</v>
+        <v>29640346.42</v>
       </c>
       <c r="H968" t="inlineStr"/>
       <c r="I968" t="inlineStr"/>
@@ -36188,7 +36188,7 @@
         <v>1</v>
       </c>
       <c r="G970" t="n">
-        <v>-13188228.67</v>
+        <v>-21244955.76</v>
       </c>
       <c r="H970" t="inlineStr"/>
       <c r="I970" t="inlineStr"/>
@@ -36272,7 +36272,7 @@
         <v>0</v>
       </c>
       <c r="M972" t="n">
-        <v>8444506.470000001</v>
+        <v>8395390.66</v>
       </c>
       <c r="N972" t="inlineStr"/>
       <c r="O972" t="inlineStr"/>
@@ -36409,7 +36409,7 @@
       <c r="F976" t="inlineStr"/>
       <c r="G976" t="inlineStr"/>
       <c r="H976" t="n">
-        <v>8444506.470000001</v>
+        <v>8395390.66</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -36417,7 +36417,7 @@
       <c r="L976" t="inlineStr"/>
       <c r="M976" t="inlineStr"/>
       <c r="N976" t="n">
-        <v>8444506.470000001</v>
+        <v>8395390.66</v>
       </c>
       <c r="O976" t="n">
         <v>0</v>
@@ -36451,7 +36451,7 @@
         <v>0</v>
       </c>
       <c r="G977" t="n">
-        <v>1990973.87</v>
+        <v>2439828.27</v>
       </c>
       <c r="H977" t="inlineStr"/>
       <c r="I977" t="inlineStr"/>
@@ -36490,7 +36490,7 @@
         <v>1</v>
       </c>
       <c r="G978" t="n">
-        <v>-1448120.84</v>
+        <v>-1054439.47</v>
       </c>
       <c r="H978" t="inlineStr"/>
       <c r="I978" t="inlineStr"/>
@@ -36535,7 +36535,7 @@
         <v>0</v>
       </c>
       <c r="M979" t="n">
-        <v>8444857.42</v>
+        <v>8397981.83</v>
       </c>
       <c r="N979" t="inlineStr"/>
       <c r="O979" t="inlineStr"/>
@@ -36613,7 +36613,7 @@
         <v>1</v>
       </c>
       <c r="M981" t="n">
-        <v>-893171.9399999999</v>
+        <v>-746828.9399999999</v>
       </c>
       <c r="N981" t="inlineStr"/>
       <c r="O981" t="inlineStr"/>
@@ -36769,7 +36769,7 @@
         <v>1</v>
       </c>
       <c r="M985" t="n">
-        <v>-7008832.45</v>
+        <v>-6265764.09</v>
       </c>
       <c r="N985" t="inlineStr"/>
       <c r="O985" t="inlineStr"/>
@@ -36828,7 +36828,7 @@
       <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
       <c r="H987" t="n">
-        <v>542853.03</v>
+        <v>1385388.8</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -36836,7 +36836,7 @@
       <c r="L987" t="inlineStr"/>
       <c r="M987" t="inlineStr"/>
       <c r="N987" t="n">
-        <v>542853.0300000003</v>
+        <v>1385388.800000001</v>
       </c>
       <c r="O987" t="n">
         <v>-0</v>
@@ -36870,7 +36870,7 @@
         <v>0</v>
       </c>
       <c r="G988" t="n">
-        <v>45968252.04</v>
+        <v>45244068.04</v>
       </c>
       <c r="H988" t="inlineStr"/>
       <c r="I988" t="inlineStr"/>
@@ -36909,7 +36909,7 @@
         <v>1</v>
       </c>
       <c r="G989" t="n">
-        <v>-10422541.49</v>
+        <v>-10717485.8</v>
       </c>
       <c r="H989" t="inlineStr"/>
       <c r="I989" t="inlineStr"/>
@@ -36948,7 +36948,7 @@
         <v>0</v>
       </c>
       <c r="G990" t="n">
-        <v>95519733.67</v>
+        <v>129139381.59</v>
       </c>
       <c r="H990" t="inlineStr"/>
       <c r="I990" t="inlineStr"/>
@@ -36987,7 +36987,7 @@
         <v>1</v>
       </c>
       <c r="G991" t="n">
-        <v>-129746294.92</v>
+        <v>-163417239.44</v>
       </c>
       <c r="H991" t="inlineStr"/>
       <c r="I991" t="inlineStr"/>
@@ -37032,7 +37032,7 @@
         <v>0</v>
       </c>
       <c r="M992" t="n">
-        <v>17296875.01</v>
+        <v>24787874.72</v>
       </c>
       <c r="N992" t="inlineStr"/>
       <c r="O992" t="inlineStr"/>
@@ -37149,7 +37149,7 @@
         <v>1</v>
       </c>
       <c r="M995" t="n">
-        <v>-15977725.71</v>
+        <v>-24539150.33</v>
       </c>
       <c r="N995" t="inlineStr"/>
       <c r="O995" t="inlineStr"/>
@@ -37169,7 +37169,7 @@
       <c r="F996" t="inlineStr"/>
       <c r="G996" t="inlineStr"/>
       <c r="H996" t="n">
-        <v>1319149.299999997</v>
+        <v>248724.3899999857</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -37177,7 +37177,7 @@
       <c r="L996" t="inlineStr"/>
       <c r="M996" t="inlineStr"/>
       <c r="N996" t="n">
-        <v>1319149.300000001</v>
+        <v>248724.3900000006</v>
       </c>
       <c r="O996" t="n">
         <v>-0</v>
@@ -37211,7 +37211,7 @@
         <v>0</v>
       </c>
       <c r="G997" t="n">
-        <v>1990973.87</v>
+        <v>2439828.27</v>
       </c>
       <c r="H997" t="inlineStr"/>
       <c r="I997" t="inlineStr"/>
@@ -37250,7 +37250,7 @@
         <v>1</v>
       </c>
       <c r="G998" t="n">
-        <v>-1448120.84</v>
+        <v>-1054439.47</v>
       </c>
       <c r="H998" t="inlineStr"/>
       <c r="I998" t="inlineStr"/>
@@ -37763,7 +37763,7 @@
         <v>0</v>
       </c>
       <c r="M1011" t="n">
-        <v>13408603.81</v>
+        <v>20709801.38</v>
       </c>
       <c r="N1011" t="inlineStr"/>
       <c r="O1011" t="inlineStr"/>
@@ -37798,7 +37798,7 @@
         <v>1</v>
       </c>
       <c r="M1012" t="n">
-        <v>-15299155.37</v>
+        <v>-21952390.89</v>
       </c>
       <c r="N1012" t="inlineStr"/>
       <c r="O1012" t="inlineStr"/>
@@ -37837,7 +37837,7 @@
         <v>1</v>
       </c>
       <c r="M1013" t="n">
-        <v>-645678.66</v>
+        <v>-972491.5600000001</v>
       </c>
       <c r="N1013" t="inlineStr"/>
       <c r="O1013" t="inlineStr"/>
@@ -37911,7 +37911,7 @@
         <v>0</v>
       </c>
       <c r="M1015" t="n">
-        <v>175394.11</v>
+        <v>696780.73</v>
       </c>
       <c r="N1015" t="inlineStr"/>
       <c r="O1015" t="inlineStr"/>
@@ -38122,7 +38122,7 @@
       <c r="F1021" t="inlineStr"/>
       <c r="G1021" t="inlineStr"/>
       <c r="H1021" t="n">
-        <v>542853.03</v>
+        <v>1385388.8</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -38130,10 +38130,10 @@
       <c r="L1021" t="inlineStr"/>
       <c r="M1021" t="inlineStr"/>
       <c r="N1021" t="n">
-        <v>542853.0300000019</v>
+        <v>1385388.799999999</v>
       </c>
       <c r="O1021" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022">
@@ -38164,7 +38164,7 @@
         <v>0</v>
       </c>
       <c r="G1022" t="n">
-        <v>1990973.87</v>
+        <v>2439828.27</v>
       </c>
       <c r="H1022" t="inlineStr"/>
       <c r="I1022" t="inlineStr"/>
@@ -38203,7 +38203,7 @@
         <v>1</v>
       </c>
       <c r="G1023" t="n">
-        <v>-1448120.84</v>
+        <v>-1054439.47</v>
       </c>
       <c r="H1023" t="inlineStr"/>
       <c r="I1023" t="inlineStr"/>
@@ -38248,7 +38248,7 @@
         <v>0</v>
       </c>
       <c r="M1024" t="n">
-        <v>8444857.42</v>
+        <v>8397981.83</v>
       </c>
       <c r="N1024" t="inlineStr"/>
       <c r="O1024" t="inlineStr"/>
@@ -38326,7 +38326,7 @@
         <v>1</v>
       </c>
       <c r="M1026" t="n">
-        <v>-893171.9399999999</v>
+        <v>-746828.9399999999</v>
       </c>
       <c r="N1026" t="inlineStr"/>
       <c r="O1026" t="inlineStr"/>
@@ -38482,7 +38482,7 @@
         <v>1</v>
       </c>
       <c r="M1030" t="n">
-        <v>-7008832.45</v>
+        <v>-6265764.09</v>
       </c>
       <c r="N1030" t="inlineStr"/>
       <c r="O1030" t="inlineStr"/>
@@ -38541,7 +38541,7 @@
       <c r="F1032" t="inlineStr"/>
       <c r="G1032" t="inlineStr"/>
       <c r="H1032" t="n">
-        <v>542853.03</v>
+        <v>1385388.8</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -38549,7 +38549,7 @@
       <c r="L1032" t="inlineStr"/>
       <c r="M1032" t="inlineStr"/>
       <c r="N1032" t="n">
-        <v>542853.0300000003</v>
+        <v>1385388.800000001</v>
       </c>
       <c r="O1032" t="n">
         <v>-0</v>
@@ -38583,7 +38583,7 @@
         <v>0</v>
       </c>
       <c r="G1033" t="n">
-        <v>7008832.45</v>
+        <v>6265764.09</v>
       </c>
       <c r="H1033" t="inlineStr"/>
       <c r="I1033" t="inlineStr"/>
@@ -38667,7 +38667,7 @@
         <v>0</v>
       </c>
       <c r="M1035" t="n">
-        <v>4944967.18</v>
+        <v>5190899.11</v>
       </c>
       <c r="N1035" t="inlineStr"/>
       <c r="O1035" t="inlineStr"/>
@@ -38745,7 +38745,7 @@
         <v>0</v>
       </c>
       <c r="M1037" t="n">
-        <v>2063865.27</v>
+        <v>1074864.98</v>
       </c>
       <c r="N1037" t="inlineStr"/>
       <c r="O1037" t="inlineStr"/>
@@ -38804,7 +38804,7 @@
       <c r="F1039" t="inlineStr"/>
       <c r="G1039" t="inlineStr"/>
       <c r="H1039" t="n">
-        <v>7008832.45</v>
+        <v>6265764.09</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -38812,7 +38812,7 @@
       <c r="L1039" t="inlineStr"/>
       <c r="M1039" t="inlineStr"/>
       <c r="N1039" t="n">
-        <v>7008832.449999999</v>
+        <v>6265764.09</v>
       </c>
       <c r="O1039" t="n">
         <v>0</v>
@@ -38846,7 +38846,7 @@
         <v>0</v>
       </c>
       <c r="G1040" t="n">
-        <v>893103.34</v>
+        <v>794805.12</v>
       </c>
       <c r="H1040" t="inlineStr"/>
       <c r="I1040" t="inlineStr"/>
@@ -38885,7 +38885,7 @@
         <v>1</v>
       </c>
       <c r="G1041" t="n">
-        <v>-282.35</v>
+        <v>-50567.35</v>
       </c>
       <c r="H1041" t="inlineStr"/>
       <c r="I1041" t="inlineStr"/>
@@ -38930,7 +38930,7 @@
         <v>0</v>
       </c>
       <c r="M1042" t="n">
-        <v>689019.73</v>
+        <v>589133</v>
       </c>
       <c r="N1042" t="inlineStr"/>
       <c r="O1042" t="inlineStr"/>
@@ -39008,7 +39008,7 @@
         <v>0</v>
       </c>
       <c r="M1044" t="n">
-        <v>50085</v>
+        <v>0</v>
       </c>
       <c r="N1044" t="inlineStr"/>
       <c r="O1044" t="inlineStr"/>
@@ -39086,7 +39086,7 @@
         <v>0</v>
       </c>
       <c r="M1046" t="n">
-        <v>18300.99</v>
+        <v>15415.55</v>
       </c>
       <c r="N1046" t="inlineStr"/>
       <c r="O1046" t="inlineStr"/>
@@ -39164,7 +39164,7 @@
         <v>1</v>
       </c>
       <c r="M1048" t="n">
-        <v>-350.95</v>
+        <v>-2591.17</v>
       </c>
       <c r="N1048" t="inlineStr"/>
       <c r="O1048" t="inlineStr"/>
@@ -39242,7 +39242,7 @@
         <v>0</v>
       </c>
       <c r="M1050" t="n">
-        <v>135766.22</v>
+        <v>142280.39</v>
       </c>
       <c r="N1050" t="inlineStr"/>
       <c r="O1050" t="inlineStr"/>
@@ -39301,7 +39301,7 @@
       <c r="F1052" t="inlineStr"/>
       <c r="G1052" t="inlineStr"/>
       <c r="H1052" t="n">
-        <v>892820.99</v>
+        <v>744237.77</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -39309,7 +39309,7 @@
       <c r="L1052" t="inlineStr"/>
       <c r="M1052" t="inlineStr"/>
       <c r="N1052" t="n">
-        <v>892820.99</v>
+        <v>744237.77</v>
       </c>
       <c r="O1052" t="n">
         <v>0</v>

--- a/report-pm.xlsx
+++ b/report-pm.xlsx
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>122499949.2</v>
+        <v>124264923.18</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>231310991.77</v>
+        <v>233075965.75</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1022,7 +1022,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>257427946.4</v>
+        <v>259192920.38</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1030,10 +1030,10 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>257427946.4</v>
+        <v>259192920.38</v>
       </c>
       <c r="O15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">

--- a/report-pm.xlsx
+++ b/report-pm.xlsx
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119278498.34</v>
+        <v>28361295.75</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>126764173.03</v>
+        <v>120971986.99</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>33936644.21</v>
+        <v>10050213.23</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>531820.01</v>
+        <v>3427.73</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>116989502.9</v>
+        <v>25454536.3</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>128533972.83</v>
+        <v>123674808.52</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1151677.27</v>
+        <v>346777.85</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>33835982.59</v>
+        <v>9910801.029999999</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -837,7 +837,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>280511135.59</v>
+        <v>159386923.7</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -845,10 +845,10 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>280511135.59</v>
+        <v>159386923.7</v>
       </c>
       <c r="O10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>141621805.26</v>
+        <v>120698901.5</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>182077674.39</v>
+        <v>52861849.15</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>33094822.77</v>
+        <v>22632743.68</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>290604656.88</v>
+        <v>150928006.97</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1022,7 +1022,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>323699479.65</v>
+        <v>173560750.65</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1030,7 +1030,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>323699479.65</v>
+        <v>173560750.65</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>62921789.53</v>
+        <v>13534008.12</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>118956209.15</v>
+        <v>26856831.91</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>22756747.33</v>
+        <v>2606787.46</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>159121251.35</v>
+        <v>37784052.57</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1207,7 +1207,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>181877998.68</v>
+        <v>40390840.03</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1215,7 +1215,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>181877998.68</v>
+        <v>40390840.03</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>20300</v>
+        <v>13000</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>20300</v>
+        <v>13000</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -1470,7 +1470,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>20300</v>
+        <v>13000</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1478,7 +1478,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>20300</v>
+        <v>13000</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>401441.85</v>
+        <v>262926.07</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>401441.85</v>
+        <v>262926.07</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -1733,7 +1733,7 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>401441.85</v>
+        <v>262926.07</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1741,7 +1741,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>401441.85</v>
+        <v>262926.07</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>128940</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1930,14 +1930,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>conta_contabil like "8129101%" and escrituracao like "S"</t>
+          <t>conta_contabil like "8990001%" and escrituracao like "S"</t>
         </is>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>128940</v>
+        <v>0</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>conta_contabil like "8129101%" and escrituracao like "S"</t>
+          <t>conta_contabil like "8990001%" and escrituracao like "S"</t>
         </is>
       </c>
       <c r="L40" t="b">
@@ -1996,7 +1996,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>128940</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2004,7 +2004,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>128940</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>278653.38</v>
+        <v>299837.04</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>278653.38</v>
+        <v>299837.04</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -2142,7 +2142,7 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>278653.38</v>
+        <v>299837.04</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2150,7 +2150,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>278653.38</v>
+        <v>299837.04</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72765.75999999999</v>
+        <v>24965.72</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>556301</v>
+        <v>51383.7</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>-489693.61</v>
+        <v>-26417.98</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>58136.6</v>
+        <v>0</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>-56876.6</v>
+        <v>-0</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>39997.08</v>
+        <v>1910.52</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>-35098.71</v>
+        <v>-0</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -2483,7 +2483,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>72765.75999999999</v>
+        <v>24965.72</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2491,10 +2491,10 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>72765.76000000001</v>
+        <v>26876.24</v>
       </c>
       <c r="O54" t="n">
-        <v>-0</v>
+        <v>-1910.52</v>
       </c>
     </row>
     <row r="55">
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>4776.1</v>
+        <v>5141.56</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>40235.26</v>
+        <v>10131.48</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -2648,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>-35459.16</v>
+        <v>-4989.92</v>
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -2668,7 +2668,7 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>4776.1</v>
+        <v>5141.56</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>4776.099999999999</v>
+        <v>5141.559999999999</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>15415.55</v>
+        <v>6725.1</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>15415.55</v>
+        <v>0</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>6725.1</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -2845,7 +2845,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>15415.55</v>
+        <v>6725.1</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2853,7 +2853,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
-        <v>15415.55</v>
+        <v>6725.1</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>15415.55</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>15415.55</v>
+        <v>0</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -2987,7 +2987,7 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>15415.55</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2995,7 +2995,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
-        <v>15415.55</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>26579.73</v>
+        <v>20816.83</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>565833.96</v>
+        <v>159902.36</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -3152,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>-539254.23</v>
+        <v>-139085.53</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -3172,7 +3172,7 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>26579.73</v>
+        <v>20816.83</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3180,7 +3180,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
-        <v>26579.72999999998</v>
+        <v>20816.82999999999</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>40787880.34</v>
+        <v>48343189.83</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>40787880.34</v>
+        <v>48343189.83</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -3318,7 +3318,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>40787880.34</v>
+        <v>48343189.83</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3326,7 +3326,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
-        <v>40787880.34</v>
+        <v>48343189.83</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>5371280</v>
+        <v>6174400</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>5371280</v>
+        <v>6174400</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -3464,7 +3464,7 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>5371280</v>
+        <v>6174400</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3472,7 +3472,7 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
-        <v>5371280</v>
+        <v>6174400</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>94000</v>
+        <v>109000</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -3590,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="M84" t="n">
-        <v>94000</v>
+        <v>109000</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -3610,7 +3610,7 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>94000</v>
+        <v>109000</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3618,7 +3618,7 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
-        <v>94000</v>
+        <v>109000</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>2949367.17</v>
+        <v>195310.33</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>38271967.51</v>
+        <v>42255100.16</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="M93" t="n">
-        <v>-35322600.34</v>
+        <v>-42059789.83</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -3941,7 +3941,7 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>2949367.17</v>
+        <v>195310.33</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
-        <v>2949367.169999994</v>
+        <v>195310.3299999982</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>36470656.34</v>
+        <v>43605413.72</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>36470656.34</v>
+        <v>43605413.72</v>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -4083,7 +4083,7 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>36470656.34</v>
+        <v>43605413.72</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4091,7 +4091,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
-        <v>36470656.34</v>
+        <v>43605413.72</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>8605989.060000001</v>
+        <v>2442731.55</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>8605989.060000001</v>
+        <v>2442731.55</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -4225,7 +4225,7 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>8605989.060000001</v>
+        <v>2442731.55</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4233,7 +4233,7 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="n">
-        <v>8605989.060000001</v>
+        <v>2442731.55</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>2641682.65</v>
+        <v>2325522.81</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>2641682.65</v>
+        <v>2325522.81</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -4367,7 +4367,7 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>2641682.65</v>
+        <v>2325522.81</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4375,7 +4375,7 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="n">
-        <v>2641682.65</v>
+        <v>2325522.81</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>6385296.79</v>
+        <v>3641846.54</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>6385296.79</v>
+        <v>3641846.54</v>
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
@@ -4651,7 +4651,7 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>6385296.79</v>
+        <v>3641846.54</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4659,7 +4659,7 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
-        <v>6385296.79</v>
+        <v>3641846.54</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>29822285.6</v>
+        <v>11088593.33</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
@@ -4732,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>-900301.88</v>
+        <v>-9357.209999999999</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>28921983.72</v>
+        <v>11079236.12</v>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
@@ -4793,7 +4793,7 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>28921983.72</v>
+        <v>11079236.12</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4801,7 +4801,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
-        <v>28921983.72</v>
+        <v>11079236.12</v>
       </c>
       <c r="O118" t="n">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>3500064.52</v>
+        <v>1566463.47</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>3500064.52</v>
+        <v>1566463.47</v>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
@@ -4935,7 +4935,7 @@
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>3500064.52</v>
+        <v>1566463.47</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4943,7 +4943,7 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="n">
-        <v>3500064.52</v>
+        <v>1566463.47</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>260653.29</v>
+        <v>377959.11</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>260653.29</v>
+        <v>377959.11</v>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
@@ -5077,7 +5077,7 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>260653.29</v>
+        <v>377959.11</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5085,7 +5085,7 @@
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="n">
-        <v>260653.29</v>
+        <v>377959.11</v>
       </c>
       <c r="O126" t="n">
         <v>0</v>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>3500064.52</v>
+        <v>1566463.47</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>3500064.52</v>
+        <v>1566463.47</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -5219,7 +5219,7 @@
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>3500064.52</v>
+        <v>1566463.47</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5227,7 +5227,7 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="n">
-        <v>3500064.52</v>
+        <v>1566463.47</v>
       </c>
       <c r="O130" t="n">
         <v>0</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>3500064.52</v>
+        <v>1566463.47</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>3500064.52</v>
+        <v>1566463.47</v>
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
@@ -5361,7 +5361,7 @@
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>3500064.52</v>
+        <v>1566463.47</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5369,7 +5369,7 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="n">
-        <v>3500064.52</v>
+        <v>1566463.47</v>
       </c>
       <c r="O134" t="n">
         <v>0</v>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>130927.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>130927.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
@@ -5503,7 +5503,7 @@
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>130927.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5511,7 +5511,7 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="n">
-        <v>130927.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="O138" t="n">
         <v>0</v>
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="M141" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
@@ -5645,7 +5645,7 @@
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5653,7 +5653,7 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="O142" t="n">
         <v>0</v>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>130927.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="M145" t="n">
-        <v>130927.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
@@ -5787,7 +5787,7 @@
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>130927.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5795,7 +5795,7 @@
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="n">
-        <v>130927.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="O146" t="n">
         <v>0</v>
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>130927.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>130927.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>130927.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5937,7 +5937,7 @@
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="n">
-        <v>130927.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="O150" t="n">
         <v>0</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>10323376.02</v>
+        <v>34895303.81</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="M153" t="n">
-        <v>38271967.51</v>
+        <v>42255100.16</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="M154" t="n">
-        <v>-27948591.49</v>
+        <v>-7359796.35</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -6114,7 +6114,7 @@
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>10323376.02</v>
+        <v>34895303.81</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6122,7 +6122,7 @@
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="n">
-        <v>10323376.02</v>
+        <v>34895303.80999999</v>
       </c>
       <c r="O155" t="n">
         <v>0</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>31752869.27</v>
+        <v>8506025.18</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="M158" t="n">
-        <v>31752869.27</v>
+        <v>8506025.18</v>
       </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>31752869.27</v>
+        <v>8506025.18</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6268,7 +6268,7 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="n">
-        <v>31752869.27</v>
+        <v>8506025.18</v>
       </c>
       <c r="O159" t="n">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>3655639.07</v>
+        <v>1139094.31</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
@@ -6386,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="M162" t="n">
-        <v>3655639.07</v>
+        <v>1139094.31</v>
       </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
@@ -6406,7 +6406,7 @@
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>3655639.07</v>
+        <v>1139094.31</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6414,7 +6414,7 @@
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="n">
-        <v>3655639.07</v>
+        <v>1139094.31</v>
       </c>
       <c r="O163" t="n">
         <v>0</v>
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>147025.03</v>
+        <v>6882.86</v>
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
@@ -6532,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="M166" t="n">
-        <v>38.28</v>
+        <v>-0</v>
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
@@ -6571,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="M167" t="n">
-        <v>146986.75</v>
+        <v>6882.86</v>
       </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
@@ -6591,7 +6591,7 @@
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>147025.03</v>
+        <v>6882.86</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6599,7 +6599,7 @@
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="n">
-        <v>147025.03</v>
+        <v>6882.86</v>
       </c>
       <c r="O168" t="n">
         <v>0</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>1613.68</v>
+        <v>251.66</v>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
@@ -6717,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="M171" t="n">
-        <v>1613.68</v>
+        <v>251.66</v>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
@@ -6737,7 +6737,7 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>1613.68</v>
+        <v>251.66</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6745,7 +6745,7 @@
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="n">
-        <v>1613.68</v>
+        <v>251.66</v>
       </c>
       <c r="O172" t="n">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>12411047.54</v>
+        <v>33652585.42</v>
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="M175" t="n">
-        <v>12411047.54</v>
+        <v>33652585.42</v>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
@@ -6879,7 +6879,7 @@
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>12411047.54</v>
+        <v>33652585.42</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6887,7 +6887,7 @@
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="n">
-        <v>12411047.54</v>
+        <v>33652585.42</v>
       </c>
       <c r="O176" t="n">
         <v>0</v>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>5463451.75</v>
+        <v>6006644.29</v>
       </c>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="M179" t="n">
-        <v>28921983.72</v>
+        <v>11079236.12</v>
       </c>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
@@ -7036,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="M180" t="n">
-        <v>-23458531.97</v>
+        <v>-5072591.83</v>
       </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>5463451.75</v>
+        <v>6006644.29</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7064,7 +7064,7 @@
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="n">
-        <v>5463451.75</v>
+        <v>6006644.289999999</v>
       </c>
       <c r="O181" t="n">
         <v>0</v>
@@ -7098,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>5463451.75</v>
+        <v>6006644.29</v>
       </c>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
@@ -7178,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="M184" t="n">
-        <v>28921983.72</v>
+        <v>11079236.12</v>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="M185" t="n">
-        <v>-23458531.97</v>
+        <v>-5072591.83</v>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>5463451.75</v>
+        <v>6006644.29</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7241,7 +7241,7 @@
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="n">
-        <v>5463451.75</v>
+        <v>6006644.289999999</v>
       </c>
       <c r="O186" t="n">
         <v>0</v>
@@ -7275,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>591737.0699999999</v>
+        <v>539897.1899999999</v>
       </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
@@ -7355,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="M189" t="n">
-        <v>23458531.97</v>
+        <v>5072591.83</v>
       </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
@@ -7390,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="M190" t="n">
-        <v>-22866794.9</v>
+        <v>-4532694.64</v>
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
@@ -7410,7 +7410,7 @@
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>591737.0699999999</v>
+        <v>539897.1899999999</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7418,7 +7418,7 @@
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="n">
-        <v>591737.0700000003</v>
+        <v>539897.1900000004</v>
       </c>
       <c r="O191" t="n">
         <v>-0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>591737.0699999999</v>
+        <v>539897.1899999999</v>
       </c>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="M194" t="n">
-        <v>23458531.97</v>
+        <v>5072591.83</v>
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
@@ -7567,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="M195" t="n">
-        <v>-22866794.9</v>
+        <v>-4532694.64</v>
       </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
@@ -7587,7 +7587,7 @@
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>591737.0699999999</v>
+        <v>539897.1899999999</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7595,7 +7595,7 @@
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
-        <v>591737.0700000003</v>
+        <v>539897.1900000004</v>
       </c>
       <c r="O196" t="n">
         <v>-0</v>
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>22866794.9</v>
+        <v>4532694.64</v>
       </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="M199" t="n">
-        <v>22866794.9</v>
+        <v>4532694.64</v>
       </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
@@ -7729,7 +7729,7 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>22866794.9</v>
+        <v>4532694.64</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7737,7 +7737,7 @@
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="n">
-        <v>22866794.9</v>
+        <v>4532694.64</v>
       </c>
       <c r="O200" t="n">
         <v>0</v>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>22866794.9</v>
+        <v>4532694.64</v>
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="M203" t="n">
-        <v>22866794.9</v>
+        <v>4532694.64</v>
       </c>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
@@ -7871,7 +7871,7 @@
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="n">
-        <v>22866794.9</v>
+        <v>4532694.64</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7879,7 +7879,7 @@
       <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="n">
-        <v>22866794.9</v>
+        <v>4532694.64</v>
       </c>
       <c r="O204" t="n">
         <v>0</v>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>884741.64</v>
+        <v>1217407.92</v>
       </c>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="M207" t="n">
-        <v>884741.64</v>
+        <v>1217407.92</v>
       </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
@@ -8013,7 +8013,7 @@
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="n">
-        <v>884741.64</v>
+        <v>1217407.92</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8021,7 +8021,7 @@
       <c r="L208" t="inlineStr"/>
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="n">
-        <v>884741.64</v>
+        <v>1217407.92</v>
       </c>
       <c r="O208" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>6725.1</v>
       </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="M211" t="n">
-        <v>0</v>
+        <v>6725.1</v>
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
@@ -8155,7 +8155,7 @@
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>6725.1</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8163,7 +8163,7 @@
       <c r="L212" t="inlineStr"/>
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="n">
-        <v>0</v>
+        <v>6725.1</v>
       </c>
       <c r="O212" t="n">
         <v>0</v>
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>2173054.43</v>
+        <v>508586.84</v>
       </c>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="M215" t="n">
-        <v>2173054.43</v>
+        <v>508586.84</v>
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
@@ -8297,7 +8297,7 @@
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="n">
-        <v>2173054.43</v>
+        <v>508586.84</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
       <c r="L216" t="inlineStr"/>
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="n">
-        <v>2173054.43</v>
+        <v>508586.84</v>
       </c>
       <c r="O216" t="n">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>702921.74</v>
+        <v>211702.72</v>
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
@@ -8419,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="M219" t="n">
-        <v>702921.74</v>
+        <v>211702.72</v>
       </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="n">
-        <v>702921.74</v>
+        <v>211702.72</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8447,7 +8447,7 @@
       <c r="L220" t="inlineStr"/>
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="n">
-        <v>702921.74</v>
+        <v>211702.72</v>
       </c>
       <c r="O220" t="n">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>115872.32</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="M223" t="n">
-        <v>115872.32</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
@@ -8581,7 +8581,7 @@
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="n">
-        <v>115872.32</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8589,7 +8589,7 @@
       <c r="L224" t="inlineStr"/>
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="n">
-        <v>115872.32</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="O224" t="n">
         <v>0</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>43737247.51</v>
+        <v>48538500.16</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
@@ -9174,7 +9174,7 @@
         <v>1</v>
       </c>
       <c r="G240" t="n">
-        <v>-5465280</v>
+        <v>-6283400</v>
       </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="M241" t="n">
-        <v>42076245.29</v>
+        <v>43401328.99</v>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
         <v>1</v>
       </c>
       <c r="M242" t="n">
-        <v>-3804277.78</v>
+        <v>-1146228.83</v>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
@@ -9278,7 +9278,7 @@
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="n">
-        <v>38271967.51</v>
+        <v>42255100.16</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9286,10 +9286,10 @@
       <c r="L243" t="inlineStr"/>
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="n">
-        <v>38271967.51</v>
+        <v>42255100.16</v>
       </c>
       <c r="O243" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="244">
@@ -9320,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>58965999.76</v>
+        <v>53141922.44</v>
       </c>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
@@ -9359,7 +9359,7 @@
         <v>1</v>
       </c>
       <c r="G245" t="n">
-        <v>-17632968.5</v>
+        <v>-8410100.9</v>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="M246" t="n">
-        <v>41333031.26</v>
+        <v>44731821.54</v>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
@@ -9463,7 +9463,7 @@
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="n">
-        <v>41333031.26</v>
+        <v>44731821.54</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
       <c r="L248" t="inlineStr"/>
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="n">
-        <v>41333031.26</v>
+        <v>44731821.54</v>
       </c>
       <c r="O248" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>29822285.6</v>
+        <v>11088593.33</v>
       </c>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
@@ -9914,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="G260" t="n">
-        <v>-900301.88</v>
+        <v>-9357.209999999999</v>
       </c>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="M261" t="n">
-        <v>28921983.72</v>
+        <v>11079236.12</v>
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
@@ -10018,7 +10018,7 @@
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="n">
-        <v>28921983.72</v>
+        <v>11079236.12</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10026,7 +10026,7 @@
       <c r="L263" t="inlineStr"/>
       <c r="M263" t="inlineStr"/>
       <c r="N263" t="n">
-        <v>28921983.72</v>
+        <v>11079236.12</v>
       </c>
       <c r="O263" t="n">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>3760717.81</v>
+        <v>1944422.58</v>
       </c>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
@@ -10144,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="M266" t="n">
-        <v>3760717.81</v>
+        <v>1944422.58</v>
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="n">
-        <v>3760717.81</v>
+        <v>1944422.58</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10211,7 +10211,7 @@
       <c r="L268" t="inlineStr"/>
       <c r="M268" t="inlineStr"/>
       <c r="N268" t="n">
-        <v>3760717.81</v>
+        <v>1944422.58</v>
       </c>
       <c r="O268" t="n">
         <v>0</v>
@@ -10245,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>131287.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
@@ -10329,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="M271" t="n">
-        <v>131287.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
@@ -10388,7 +10388,7 @@
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="n">
-        <v>131287.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10396,7 +10396,7 @@
       <c r="L273" t="inlineStr"/>
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="n">
-        <v>131287.87</v>
+        <v>80022.10000000001</v>
       </c>
       <c r="O273" t="n">
         <v>0</v>
@@ -14130,7 +14130,7 @@
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>0</v>
+        <v>140810.33</v>
       </c>
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr"/>
@@ -14214,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="M376" t="n">
-        <v>0</v>
+        <v>140810.33</v>
       </c>
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr"/>
@@ -14273,7 +14273,7 @@
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr"/>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>140810.33</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14281,7 +14281,7 @@
       <c r="L378" t="inlineStr"/>
       <c r="M378" t="inlineStr"/>
       <c r="N378" t="n">
-        <v>0</v>
+        <v>140810.33</v>
       </c>
       <c r="O378" t="n">
         <v>0</v>
@@ -15055,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="G399" t="n">
-        <v>19200</v>
+        <v>0</v>
       </c>
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr"/>
@@ -15139,7 +15139,7 @@
         <v>0</v>
       </c>
       <c r="M401" t="n">
-        <v>19200</v>
+        <v>0</v>
       </c>
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr"/>
@@ -15198,7 +15198,7 @@
       <c r="F403" t="inlineStr"/>
       <c r="G403" t="inlineStr"/>
       <c r="H403" t="n">
-        <v>19200</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15206,7 +15206,7 @@
       <c r="L403" t="inlineStr"/>
       <c r="M403" t="inlineStr"/>
       <c r="N403" t="n">
-        <v>19200</v>
+        <v>0</v>
       </c>
       <c r="O403" t="n">
         <v>0</v>
@@ -16165,7 +16165,7 @@
         <v>0</v>
       </c>
       <c r="G429" t="n">
-        <v>640000</v>
+        <v>0</v>
       </c>
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr"/>
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="M431" t="n">
-        <v>640000</v>
+        <v>0</v>
       </c>
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr"/>
@@ -16308,7 +16308,7 @@
       <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr"/>
       <c r="H433" t="n">
-        <v>640000</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16316,7 +16316,7 @@
       <c r="L433" t="inlineStr"/>
       <c r="M433" t="inlineStr"/>
       <c r="N433" t="n">
-        <v>640000</v>
+        <v>0</v>
       </c>
       <c r="O433" t="n">
         <v>0</v>
@@ -21900,7 +21900,7 @@
         <v>0</v>
       </c>
       <c r="G584" t="n">
-        <v>892146.62</v>
+        <v>879263.76</v>
       </c>
       <c r="H584" t="inlineStr"/>
       <c r="I584" t="inlineStr"/>
@@ -21984,7 +21984,7 @@
         <v>0</v>
       </c>
       <c r="M586" t="n">
-        <v>892146.62</v>
+        <v>879263.76</v>
       </c>
       <c r="N586" t="inlineStr"/>
       <c r="O586" t="inlineStr"/>
@@ -22043,7 +22043,7 @@
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr"/>
       <c r="H588" t="n">
-        <v>892146.62</v>
+        <v>879263.76</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22051,7 +22051,7 @@
       <c r="L588" t="inlineStr"/>
       <c r="M588" t="inlineStr"/>
       <c r="N588" t="n">
-        <v>892146.62</v>
+        <v>879263.76</v>
       </c>
       <c r="O588" t="n">
         <v>0</v>
@@ -22455,7 +22455,7 @@
         <v>0</v>
       </c>
       <c r="G599" t="n">
-        <v>12040.94</v>
+        <v>2861.4</v>
       </c>
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr"/>
@@ -22539,7 +22539,7 @@
         <v>0</v>
       </c>
       <c r="M601" t="n">
-        <v>12040.94</v>
+        <v>2861.4</v>
       </c>
       <c r="N601" t="inlineStr"/>
       <c r="O601" t="inlineStr"/>
@@ -22598,7 +22598,7 @@
       <c r="F603" t="inlineStr"/>
       <c r="G603" t="inlineStr"/>
       <c r="H603" t="n">
-        <v>12040.94</v>
+        <v>2861.4</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22606,7 +22606,7 @@
       <c r="L603" t="inlineStr"/>
       <c r="M603" t="inlineStr"/>
       <c r="N603" t="n">
-        <v>12040.94</v>
+        <v>2861.4</v>
       </c>
       <c r="O603" t="n">
         <v>0</v>
@@ -22640,7 +22640,7 @@
         <v>0</v>
       </c>
       <c r="G604" t="n">
-        <v>9439000.27</v>
+        <v>4091281.12</v>
       </c>
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr"/>
@@ -22724,7 +22724,7 @@
         <v>0</v>
       </c>
       <c r="M606" t="n">
-        <v>9439000.27</v>
+        <v>4091281.12</v>
       </c>
       <c r="N606" t="inlineStr"/>
       <c r="O606" t="inlineStr"/>
@@ -22783,7 +22783,7 @@
       <c r="F608" t="inlineStr"/>
       <c r="G608" t="inlineStr"/>
       <c r="H608" t="n">
-        <v>9439000.27</v>
+        <v>4091281.12</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22791,7 +22791,7 @@
       <c r="L608" t="inlineStr"/>
       <c r="M608" t="inlineStr"/>
       <c r="N608" t="n">
-        <v>9439000.27</v>
+        <v>4091281.12</v>
       </c>
       <c r="O608" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="G614" t="n">
-        <v>3272286.56</v>
+        <v>1941334.5</v>
       </c>
       <c r="H614" t="inlineStr"/>
       <c r="I614" t="inlineStr"/>
@@ -23094,7 +23094,7 @@
         <v>0</v>
       </c>
       <c r="M616" t="n">
-        <v>3272286.56</v>
+        <v>1941334.5</v>
       </c>
       <c r="N616" t="inlineStr"/>
       <c r="O616" t="inlineStr"/>
@@ -23153,7 +23153,7 @@
       <c r="F618" t="inlineStr"/>
       <c r="G618" t="inlineStr"/>
       <c r="H618" t="n">
-        <v>3272286.56</v>
+        <v>1941334.5</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23161,7 +23161,7 @@
       <c r="L618" t="inlineStr"/>
       <c r="M618" t="inlineStr"/>
       <c r="N618" t="n">
-        <v>3272286.56</v>
+        <v>1941334.5</v>
       </c>
       <c r="O618" t="n">
         <v>0</v>
@@ -24860,7 +24860,7 @@
         <v>0</v>
       </c>
       <c r="G664" t="n">
-        <v>3086604.62</v>
+        <v>26874425.2</v>
       </c>
       <c r="H664" t="inlineStr"/>
       <c r="I664" t="inlineStr"/>
@@ -24944,7 +24944,7 @@
         <v>0</v>
       </c>
       <c r="M666" t="n">
-        <v>3086604.62</v>
+        <v>26874425.2</v>
       </c>
       <c r="N666" t="inlineStr"/>
       <c r="O666" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
       <c r="F668" t="inlineStr"/>
       <c r="G668" t="inlineStr"/>
       <c r="H668" t="n">
-        <v>3086604.62</v>
+        <v>26874425.2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25011,7 +25011,7 @@
       <c r="L668" t="inlineStr"/>
       <c r="M668" t="inlineStr"/>
       <c r="N668" t="n">
-        <v>3086604.62</v>
+        <v>26874425.2</v>
       </c>
       <c r="O668" t="n">
         <v>0</v>
@@ -25970,7 +25970,7 @@
         <v>0</v>
       </c>
       <c r="G694" t="n">
-        <v>128940</v>
+        <v>0</v>
       </c>
       <c r="H694" t="inlineStr"/>
       <c r="I694" t="inlineStr"/>
@@ -26054,7 +26054,7 @@
         <v>0</v>
       </c>
       <c r="M696" t="n">
-        <v>128940</v>
+        <v>0</v>
       </c>
       <c r="N696" t="inlineStr"/>
       <c r="O696" t="inlineStr"/>
@@ -26113,7 +26113,7 @@
       <c r="F698" t="inlineStr"/>
       <c r="G698" t="inlineStr"/>
       <c r="H698" t="n">
-        <v>128940</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26121,7 +26121,7 @@
       <c r="L698" t="inlineStr"/>
       <c r="M698" t="inlineStr"/>
       <c r="N698" t="n">
-        <v>128940</v>
+        <v>0</v>
       </c>
       <c r="O698" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>0</v>
       </c>
       <c r="G699" t="n">
-        <v>10016.95</v>
+        <v>0</v>
       </c>
       <c r="H699" t="inlineStr"/>
       <c r="I699" t="inlineStr"/>
@@ -26239,7 +26239,7 @@
         <v>0</v>
       </c>
       <c r="M701" t="n">
-        <v>10016.95</v>
+        <v>0</v>
       </c>
       <c r="N701" t="inlineStr"/>
       <c r="O701" t="inlineStr"/>
@@ -26298,7 +26298,7 @@
       <c r="F703" t="inlineStr"/>
       <c r="G703" t="inlineStr"/>
       <c r="H703" t="n">
-        <v>10016.95</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26306,7 +26306,7 @@
       <c r="L703" t="inlineStr"/>
       <c r="M703" t="inlineStr"/>
       <c r="N703" t="n">
-        <v>10016.95</v>
+        <v>0</v>
       </c>
       <c r="O703" t="n">
         <v>0</v>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="G714" t="n">
-        <v>37659181.39</v>
+        <v>16010156.58</v>
       </c>
       <c r="H714" t="inlineStr"/>
       <c r="I714" t="inlineStr"/>
@@ -26794,7 +26794,7 @@
         <v>0</v>
       </c>
       <c r="M716" t="n">
-        <v>38789670.46</v>
+        <v>16878438.27</v>
       </c>
       <c r="N716" t="inlineStr"/>
       <c r="O716" t="inlineStr"/>
@@ -26833,7 +26833,7 @@
         <v>1</v>
       </c>
       <c r="M717" t="n">
-        <v>-1130489.07</v>
+        <v>-868281.6899999999</v>
       </c>
       <c r="N717" t="inlineStr"/>
       <c r="O717" t="inlineStr"/>
@@ -26853,7 +26853,7 @@
       <c r="F718" t="inlineStr"/>
       <c r="G718" t="inlineStr"/>
       <c r="H718" t="n">
-        <v>37659181.39</v>
+        <v>16010156.58</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26861,7 +26861,7 @@
       <c r="L718" t="inlineStr"/>
       <c r="M718" t="inlineStr"/>
       <c r="N718" t="n">
-        <v>37659181.39</v>
+        <v>16010156.58</v>
       </c>
       <c r="O718" t="n">
         <v>0</v>
@@ -29855,7 +29855,7 @@
         <v>0</v>
       </c>
       <c r="G799" t="n">
-        <v>103116.36</v>
+        <v>1408.74</v>
       </c>
       <c r="H799" t="inlineStr"/>
       <c r="I799" t="inlineStr"/>
@@ -29939,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="M801" t="n">
-        <v>103116.36</v>
+        <v>1408.74</v>
       </c>
       <c r="N801" t="inlineStr"/>
       <c r="O801" t="inlineStr"/>
@@ -29998,7 +29998,7 @@
       <c r="F803" t="inlineStr"/>
       <c r="G803" t="inlineStr"/>
       <c r="H803" t="n">
-        <v>103116.36</v>
+        <v>1408.74</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -30006,7 +30006,7 @@
       <c r="L803" t="inlineStr"/>
       <c r="M803" t="inlineStr"/>
       <c r="N803" t="n">
-        <v>103116.36</v>
+        <v>1408.74</v>
       </c>
       <c r="O803" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="G804" t="n">
-        <v>79779.75</v>
+        <v>24202.47</v>
       </c>
       <c r="H804" t="inlineStr"/>
       <c r="I804" t="inlineStr"/>
@@ -30124,7 +30124,7 @@
         <v>0</v>
       </c>
       <c r="M806" t="n">
-        <v>79779.75</v>
+        <v>24202.47</v>
       </c>
       <c r="N806" t="inlineStr"/>
       <c r="O806" t="inlineStr"/>
@@ -30183,7 +30183,7 @@
       <c r="F808" t="inlineStr"/>
       <c r="G808" t="inlineStr"/>
       <c r="H808" t="n">
-        <v>79779.75</v>
+        <v>24202.47</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -30191,7 +30191,7 @@
       <c r="L808" t="inlineStr"/>
       <c r="M808" t="inlineStr"/>
       <c r="N808" t="n">
-        <v>79779.75</v>
+        <v>24202.47</v>
       </c>
       <c r="O808" t="n">
         <v>0</v>
@@ -33925,7 +33925,7 @@
         <v>0</v>
       </c>
       <c r="G909" t="n">
-        <v>46973.57</v>
+        <v>19362.19</v>
       </c>
       <c r="H909" t="inlineStr"/>
       <c r="I909" t="inlineStr"/>
@@ -34009,7 +34009,7 @@
         <v>0</v>
       </c>
       <c r="M911" t="n">
-        <v>46973.57</v>
+        <v>19362.19</v>
       </c>
       <c r="N911" t="inlineStr"/>
       <c r="O911" t="inlineStr"/>
@@ -34068,7 +34068,7 @@
       <c r="F913" t="inlineStr"/>
       <c r="G913" t="inlineStr"/>
       <c r="H913" t="n">
-        <v>46973.57</v>
+        <v>19362.19</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -34076,7 +34076,7 @@
       <c r="L913" t="inlineStr"/>
       <c r="M913" t="inlineStr"/>
       <c r="N913" t="n">
-        <v>46973.57</v>
+        <v>19362.19</v>
       </c>
       <c r="O913" t="n">
         <v>0</v>
@@ -35220,7 +35220,7 @@
         <v>0</v>
       </c>
       <c r="G944" t="n">
-        <v>49877.03</v>
+        <v>49798.94</v>
       </c>
       <c r="H944" t="inlineStr"/>
       <c r="I944" t="inlineStr"/>
@@ -35304,7 +35304,7 @@
         <v>0</v>
       </c>
       <c r="M946" t="n">
-        <v>49877.03</v>
+        <v>49798.94</v>
       </c>
       <c r="N946" t="inlineStr"/>
       <c r="O946" t="inlineStr"/>
@@ -35363,7 +35363,7 @@
       <c r="F948" t="inlineStr"/>
       <c r="G948" t="inlineStr"/>
       <c r="H948" t="n">
-        <v>49877.03</v>
+        <v>49798.94</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -35371,7 +35371,7 @@
       <c r="L948" t="inlineStr"/>
       <c r="M948" t="inlineStr"/>
       <c r="N948" t="n">
-        <v>49877.03</v>
+        <v>49798.94</v>
       </c>
       <c r="O948" t="n">
         <v>0</v>
@@ -35405,7 +35405,7 @@
         <v>0</v>
       </c>
       <c r="G949" t="n">
-        <v>33998.9</v>
+        <v>0</v>
       </c>
       <c r="H949" t="inlineStr"/>
       <c r="I949" t="inlineStr"/>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="M951" t="n">
-        <v>33998.9</v>
+        <v>0</v>
       </c>
       <c r="N951" t="inlineStr"/>
       <c r="O951" t="inlineStr"/>
@@ -35548,7 +35548,7 @@
       <c r="F953" t="inlineStr"/>
       <c r="G953" t="inlineStr"/>
       <c r="H953" t="n">
-        <v>33998.9</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -35556,7 +35556,7 @@
       <c r="L953" t="inlineStr"/>
       <c r="M953" t="inlineStr"/>
       <c r="N953" t="n">
-        <v>33998.9</v>
+        <v>0</v>
       </c>
       <c r="O953" t="n">
         <v>0</v>
@@ -35775,7 +35775,7 @@
         <v>0</v>
       </c>
       <c r="G959" t="n">
-        <v>1687412.94</v>
+        <v>0</v>
       </c>
       <c r="H959" t="inlineStr"/>
       <c r="I959" t="inlineStr"/>
@@ -35859,7 +35859,7 @@
         <v>0</v>
       </c>
       <c r="M961" t="n">
-        <v>1687412.94</v>
+        <v>0</v>
       </c>
       <c r="N961" t="inlineStr"/>
       <c r="O961" t="inlineStr"/>
@@ -35918,7 +35918,7 @@
       <c r="F963" t="inlineStr"/>
       <c r="G963" t="inlineStr"/>
       <c r="H963" t="n">
-        <v>1687412.94</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -35926,7 +35926,7 @@
       <c r="L963" t="inlineStr"/>
       <c r="M963" t="inlineStr"/>
       <c r="N963" t="n">
-        <v>1687412.94</v>
+        <v>0</v>
       </c>
       <c r="O963" t="n">
         <v>0</v>
@@ -36330,7 +36330,7 @@
         <v>0</v>
       </c>
       <c r="G974" t="n">
-        <v>37659181.39</v>
+        <v>16010156.58</v>
       </c>
       <c r="H974" t="inlineStr"/>
       <c r="I974" t="inlineStr"/>
@@ -36408,7 +36408,7 @@
         <v>1</v>
       </c>
       <c r="G976" t="n">
-        <v>-29242682.32</v>
+        <v>-6257697.22</v>
       </c>
       <c r="H976" t="inlineStr"/>
       <c r="I976" t="inlineStr"/>
@@ -36492,7 +36492,7 @@
         <v>0</v>
       </c>
       <c r="M978" t="n">
-        <v>8416499.07</v>
+        <v>9752459.359999999</v>
       </c>
       <c r="N978" t="inlineStr"/>
       <c r="O978" t="inlineStr"/>
@@ -36629,7 +36629,7 @@
       <c r="F982" t="inlineStr"/>
       <c r="G982" t="inlineStr"/>
       <c r="H982" t="n">
-        <v>8416499.07</v>
+        <v>9752459.359999999</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -36637,7 +36637,7 @@
       <c r="L982" t="inlineStr"/>
       <c r="M982" t="inlineStr"/>
       <c r="N982" t="n">
-        <v>8416499.07</v>
+        <v>9752459.359999999</v>
       </c>
       <c r="O982" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="G983" t="n">
-        <v>2410747.23</v>
+        <v>2712627.04</v>
       </c>
       <c r="H983" t="inlineStr"/>
       <c r="I983" t="inlineStr"/>
@@ -36710,7 +36710,7 @@
         <v>1</v>
       </c>
       <c r="G984" t="n">
-        <v>-1079921.72</v>
+        <v>-868281.6899999999</v>
       </c>
       <c r="H984" t="inlineStr"/>
       <c r="I984" t="inlineStr"/>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="M985" t="n">
-        <v>8422288.880000001</v>
+        <v>9752893.640000001</v>
       </c>
       <c r="N985" t="inlineStr"/>
       <c r="O985" t="inlineStr"/>
@@ -36833,7 +36833,7 @@
         <v>1</v>
       </c>
       <c r="M987" t="n">
-        <v>-743269.98</v>
+        <v>-684496.08</v>
       </c>
       <c r="N987" t="inlineStr"/>
       <c r="O987" t="inlineStr"/>
@@ -36989,7 +36989,7 @@
         <v>1</v>
       </c>
       <c r="M991" t="n">
-        <v>-6348193.39</v>
+        <v>-7224052.21</v>
       </c>
       <c r="N991" t="inlineStr"/>
       <c r="O991" t="inlineStr"/>
@@ -37048,7 +37048,7 @@
       <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr"/>
       <c r="H993" t="n">
-        <v>1330825.51</v>
+        <v>1844345.35</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -37056,7 +37056,7 @@
       <c r="L993" t="inlineStr"/>
       <c r="M993" t="inlineStr"/>
       <c r="N993" t="n">
-        <v>1330825.510000001</v>
+        <v>1844345.350000001</v>
       </c>
       <c r="O993" t="n">
         <v>-0</v>
@@ -37090,7 +37090,7 @@
         <v>0</v>
       </c>
       <c r="G994" t="n">
-        <v>45355786.29</v>
+        <v>45885930.14</v>
       </c>
       <c r="H994" t="inlineStr"/>
       <c r="I994" t="inlineStr"/>
@@ -37129,7 +37129,7 @@
         <v>1</v>
       </c>
       <c r="G995" t="n">
-        <v>-10975040.97</v>
+        <v>-11519769.54</v>
       </c>
       <c r="H995" t="inlineStr"/>
       <c r="I995" t="inlineStr"/>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="G996" t="n">
-        <v>129410452.06</v>
+        <v>175167226.95</v>
       </c>
       <c r="H996" t="inlineStr"/>
       <c r="I996" t="inlineStr"/>
@@ -37207,7 +37207,7 @@
         <v>1</v>
       </c>
       <c r="G997" t="n">
-        <v>-163272001.74</v>
+        <v>-209329449.63</v>
       </c>
       <c r="H997" t="inlineStr"/>
       <c r="I997" t="inlineStr"/>
@@ -37252,7 +37252,7 @@
         <v>0</v>
       </c>
       <c r="M998" t="n">
-        <v>33304162.58</v>
+        <v>9907373.300000001</v>
       </c>
       <c r="N998" t="inlineStr"/>
       <c r="O998" t="inlineStr"/>
@@ -37330,7 +37330,7 @@
         <v>0</v>
       </c>
       <c r="M1000" t="n">
-        <v>63920.34</v>
+        <v>0</v>
       </c>
       <c r="N1000" t="inlineStr"/>
       <c r="O1000" t="inlineStr"/>
@@ -37369,7 +37369,7 @@
         <v>1</v>
       </c>
       <c r="M1001" t="n">
-        <v>-32848887.28</v>
+        <v>-9703435.380000001</v>
       </c>
       <c r="N1001" t="inlineStr"/>
       <c r="O1001" t="inlineStr"/>
@@ -37389,7 +37389,7 @@
       <c r="F1002" t="inlineStr"/>
       <c r="G1002" t="inlineStr"/>
       <c r="H1002" t="n">
-        <v>519195.6399999857</v>
+        <v>203937.9199999869</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -37397,7 +37397,7 @@
       <c r="L1002" t="inlineStr"/>
       <c r="M1002" t="inlineStr"/>
       <c r="N1002" t="n">
-        <v>519195.6399999969</v>
+        <v>203937.9199999999</v>
       </c>
       <c r="O1002" t="n">
         <v>-0</v>
@@ -37431,7 +37431,7 @@
         <v>0</v>
       </c>
       <c r="G1003" t="n">
-        <v>2410747.23</v>
+        <v>2712627.04</v>
       </c>
       <c r="H1003" t="inlineStr"/>
       <c r="I1003" t="inlineStr"/>
@@ -37470,7 +37470,7 @@
         <v>1</v>
       </c>
       <c r="G1004" t="n">
-        <v>-1079921.72</v>
+        <v>-868281.6899999999</v>
       </c>
       <c r="H1004" t="inlineStr"/>
       <c r="I1004" t="inlineStr"/>
@@ -37515,7 +37515,7 @@
         <v>0</v>
       </c>
       <c r="M1005" t="n">
-        <v>6823912.7</v>
+        <v>7789826.64</v>
       </c>
       <c r="N1005" t="inlineStr"/>
       <c r="O1005" t="inlineStr"/>
@@ -37593,7 +37593,7 @@
         <v>1</v>
       </c>
       <c r="M1007" t="n">
-        <v>-159505.75</v>
+        <v>-80022.10000000001</v>
       </c>
       <c r="N1007" t="inlineStr"/>
       <c r="O1007" t="inlineStr"/>
@@ -37749,7 +37749,7 @@
         <v>1</v>
       </c>
       <c r="M1011" t="n">
-        <v>-3760717.81</v>
+        <v>-1944422.58</v>
       </c>
       <c r="N1011" t="inlineStr"/>
       <c r="O1011" t="inlineStr"/>
@@ -37983,7 +37983,7 @@
         <v>0</v>
       </c>
       <c r="M1017" t="n">
-        <v>27948591.49</v>
+        <v>7359796.35</v>
       </c>
       <c r="N1017" t="inlineStr"/>
       <c r="O1017" t="inlineStr"/>
@@ -38018,7 +38018,7 @@
         <v>1</v>
       </c>
       <c r="M1018" t="n">
-        <v>-28921983.72</v>
+        <v>-11079236.12</v>
       </c>
       <c r="N1018" t="inlineStr"/>
       <c r="O1018" t="inlineStr"/>
@@ -38057,7 +38057,7 @@
         <v>1</v>
       </c>
       <c r="M1019" t="n">
-        <v>-1302393.14</v>
+        <v>-413299.56</v>
       </c>
       <c r="N1019" t="inlineStr"/>
       <c r="O1019" t="inlineStr"/>
@@ -38131,7 +38131,7 @@
         <v>0</v>
       </c>
       <c r="M1021" t="n">
-        <v>702921.74</v>
+        <v>211702.72</v>
       </c>
       <c r="N1021" t="inlineStr"/>
       <c r="O1021" t="inlineStr"/>
@@ -38342,7 +38342,7 @@
       <c r="F1027" t="inlineStr"/>
       <c r="G1027" t="inlineStr"/>
       <c r="H1027" t="n">
-        <v>1330825.51</v>
+        <v>1844345.35</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -38350,10 +38350,10 @@
       <c r="L1027" t="inlineStr"/>
       <c r="M1027" t="inlineStr"/>
       <c r="N1027" t="n">
-        <v>1330825.51</v>
+        <v>1844345.349999999</v>
       </c>
       <c r="O1027" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028">
@@ -38384,7 +38384,7 @@
         <v>0</v>
       </c>
       <c r="G1028" t="n">
-        <v>2410747.23</v>
+        <v>2712627.04</v>
       </c>
       <c r="H1028" t="inlineStr"/>
       <c r="I1028" t="inlineStr"/>
@@ -38423,7 +38423,7 @@
         <v>1</v>
       </c>
       <c r="G1029" t="n">
-        <v>-1079921.72</v>
+        <v>-868281.6899999999</v>
       </c>
       <c r="H1029" t="inlineStr"/>
       <c r="I1029" t="inlineStr"/>
@@ -38468,7 +38468,7 @@
         <v>0</v>
       </c>
       <c r="M1030" t="n">
-        <v>8422288.880000001</v>
+        <v>9752893.640000001</v>
       </c>
       <c r="N1030" t="inlineStr"/>
       <c r="O1030" t="inlineStr"/>
@@ -38546,7 +38546,7 @@
         <v>1</v>
       </c>
       <c r="M1032" t="n">
-        <v>-743269.98</v>
+        <v>-684496.08</v>
       </c>
       <c r="N1032" t="inlineStr"/>
       <c r="O1032" t="inlineStr"/>
@@ -38702,7 +38702,7 @@
         <v>1</v>
       </c>
       <c r="M1036" t="n">
-        <v>-6348193.39</v>
+        <v>-7224052.21</v>
       </c>
       <c r="N1036" t="inlineStr"/>
       <c r="O1036" t="inlineStr"/>
@@ -38761,7 +38761,7 @@
       <c r="F1038" t="inlineStr"/>
       <c r="G1038" t="inlineStr"/>
       <c r="H1038" t="n">
-        <v>1330825.51</v>
+        <v>1844345.35</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -38769,7 +38769,7 @@
       <c r="L1038" t="inlineStr"/>
       <c r="M1038" t="inlineStr"/>
       <c r="N1038" t="n">
-        <v>1330825.510000001</v>
+        <v>1844345.350000001</v>
       </c>
       <c r="O1038" t="n">
         <v>-0</v>
@@ -38803,7 +38803,7 @@
         <v>0</v>
       </c>
       <c r="G1039" t="n">
-        <v>6348193.39</v>
+        <v>7224052.21</v>
       </c>
       <c r="H1039" t="inlineStr"/>
       <c r="I1039" t="inlineStr"/>
@@ -38887,7 +38887,7 @@
         <v>0</v>
       </c>
       <c r="M1041" t="n">
-        <v>5463451.75</v>
+        <v>6006644.29</v>
       </c>
       <c r="N1041" t="inlineStr"/>
       <c r="O1041" t="inlineStr"/>
@@ -38965,7 +38965,7 @@
         <v>0</v>
       </c>
       <c r="M1043" t="n">
-        <v>884741.64</v>
+        <v>1217407.92</v>
       </c>
       <c r="N1043" t="inlineStr"/>
       <c r="O1043" t="inlineStr"/>
@@ -39024,7 +39024,7 @@
       <c r="F1045" t="inlineStr"/>
       <c r="G1045" t="inlineStr"/>
       <c r="H1045" t="n">
-        <v>6348193.39</v>
+        <v>7224052.21</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -39032,7 +39032,7 @@
       <c r="L1045" t="inlineStr"/>
       <c r="M1045" t="inlineStr"/>
       <c r="N1045" t="n">
-        <v>6348193.39</v>
+        <v>7224052.21</v>
       </c>
       <c r="O1045" t="n">
         <v>0</v>
@@ -39066,7 +39066,7 @@
         <v>0</v>
       </c>
       <c r="G1046" t="n">
-        <v>788047.52</v>
+        <v>684061.8</v>
       </c>
       <c r="H1046" t="inlineStr"/>
       <c r="I1046" t="inlineStr"/>
@@ -39105,7 +39105,7 @@
         <v>1</v>
       </c>
       <c r="G1047" t="n">
-        <v>-50567.35</v>
+        <v>-0</v>
       </c>
       <c r="H1047" t="inlineStr"/>
       <c r="I1047" t="inlineStr"/>
@@ -39150,7 +39150,7 @@
         <v>0</v>
       </c>
       <c r="M1048" t="n">
-        <v>591737.0699999999</v>
+        <v>539897.1899999999</v>
       </c>
       <c r="N1048" t="inlineStr"/>
       <c r="O1048" t="inlineStr"/>
@@ -39228,7 +39228,7 @@
         <v>0</v>
       </c>
       <c r="M1050" t="n">
-        <v>0</v>
+        <v>6725.1</v>
       </c>
       <c r="N1050" t="inlineStr"/>
       <c r="O1050" t="inlineStr"/>
@@ -39306,7 +39306,7 @@
         <v>0</v>
       </c>
       <c r="M1052" t="n">
-        <v>15415.55</v>
+        <v>0</v>
       </c>
       <c r="N1052" t="inlineStr"/>
       <c r="O1052" t="inlineStr"/>
@@ -39384,7 +39384,7 @@
         <v>1</v>
       </c>
       <c r="M1054" t="n">
-        <v>-5789.81</v>
+        <v>-434.28</v>
       </c>
       <c r="N1054" t="inlineStr"/>
       <c r="O1054" t="inlineStr"/>
@@ -39462,7 +39462,7 @@
         <v>0</v>
       </c>
       <c r="M1056" t="n">
-        <v>136117.36</v>
+        <v>137873.79</v>
       </c>
       <c r="N1056" t="inlineStr"/>
       <c r="O1056" t="inlineStr"/>
@@ -39521,7 +39521,7 @@
       <c r="F1058" t="inlineStr"/>
       <c r="G1058" t="inlineStr"/>
       <c r="H1058" t="n">
-        <v>737480.17</v>
+        <v>684061.8</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -39529,7 +39529,7 @@
       <c r="L1058" t="inlineStr"/>
       <c r="M1058" t="inlineStr"/>
       <c r="N1058" t="n">
-        <v>737480.1699999999</v>
+        <v>684061.7999999999</v>
       </c>
       <c r="O1058" t="n">
         <v>0</v>
